--- a/documents/schedule_classrooms_zeromski.xlsx
+++ b/documents/schedule_classrooms_zeromski.xlsx
@@ -79,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -191,6 +191,38 @@
       <right style="medium">
         <color rgb="00000000"/>
       </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="00000000"/>
@@ -217,6 +249,38 @@
       <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -316,61 +380,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -738,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,6 +1444,30 @@
       <c r="V10" s="17" t="inlineStr"/>
       <c r="W10" s="18" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n"/>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="19" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="19" t="n"/>
+      <c r="J11" s="19" t="n"/>
+      <c r="K11" s="19" t="n"/>
+      <c r="L11" s="19" t="n"/>
+      <c r="M11" s="19" t="n"/>
+      <c r="N11" s="19" t="n"/>
+      <c r="O11" s="19" t="n"/>
+      <c r="P11" s="19" t="n"/>
+      <c r="Q11" s="19" t="n"/>
+      <c r="R11" s="19" t="n"/>
+      <c r="S11" s="19" t="n"/>
+      <c r="T11" s="19" t="n"/>
+      <c r="U11" s="19" t="n"/>
+      <c r="V11" s="19" t="n"/>
+      <c r="W11" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -1399,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1834,50 +1923,74 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:15-14:00</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>biologia</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="21" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>2e</t>
         </is>
       </c>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr"/>
-      <c r="U11" s="20" t="inlineStr"/>
-      <c r="V11" s="20" t="inlineStr"/>
-      <c r="W11" s="21" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="inlineStr"/>
+      <c r="V11" s="21" t="inlineStr"/>
+      <c r="W11" s="22" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1899,7 +2012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2350,50 +2463,74 @@
     </row>
     <row r="11" ht="14.3" customHeight="1">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>13:15-14:00</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>HiT</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="21" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>2g</t>
         </is>
       </c>
-      <c r="H11" s="20" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr"/>
-      <c r="J11" s="20" t="inlineStr"/>
-      <c r="K11" s="21" t="inlineStr"/>
-      <c r="L11" s="20" t="inlineStr"/>
-      <c r="M11" s="20" t="inlineStr"/>
-      <c r="N11" s="20" t="inlineStr"/>
-      <c r="O11" s="21" t="inlineStr"/>
-      <c r="P11" s="20" t="inlineStr"/>
-      <c r="Q11" s="20" t="inlineStr"/>
-      <c r="R11" s="20" t="inlineStr"/>
-      <c r="S11" s="21" t="inlineStr"/>
-      <c r="T11" s="20" t="inlineStr"/>
-      <c r="U11" s="20" t="inlineStr"/>
-      <c r="V11" s="20" t="inlineStr"/>
-      <c r="W11" s="21" t="inlineStr"/>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+      <c r="M11" s="21" t="inlineStr"/>
+      <c r="N11" s="21" t="inlineStr"/>
+      <c r="O11" s="22" t="inlineStr"/>
+      <c r="P11" s="21" t="inlineStr"/>
+      <c r="Q11" s="21" t="inlineStr"/>
+      <c r="R11" s="21" t="inlineStr"/>
+      <c r="S11" s="22" t="inlineStr"/>
+      <c r="T11" s="21" t="inlineStr"/>
+      <c r="U11" s="21" t="inlineStr"/>
+      <c r="V11" s="21" t="inlineStr"/>
+      <c r="W11" s="22" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="19" t="n"/>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="19" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+      <c r="K12" s="19" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="19" t="n"/>
+      <c r="N12" s="19" t="n"/>
+      <c r="O12" s="19" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
+      <c r="R12" s="19" t="n"/>
+      <c r="S12" s="19" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="19" t="n"/>
+      <c r="V12" s="19" t="n"/>
+      <c r="W12" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2415,7 +2552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,6 +3639,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -3522,7 +3683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4609,6 +4770,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -4629,7 +4814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5684,6 +5869,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -5704,7 +5913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7155,48 +7364,72 @@
     </row>
     <row r="21" ht="14.3" customHeight="1">
       <c r="A21" s="2" t="n"/>
-      <c r="B21" s="19" t="n"/>
-      <c r="C21" s="19" t="inlineStr">
+      <c r="B21" s="20" t="n"/>
+      <c r="C21" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D21" s="20" t="inlineStr">
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E21" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" s="21" t="inlineStr">
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="inlineStr">
         <is>
           <t>3e</t>
         </is>
       </c>
-      <c r="H21" s="20" t="inlineStr"/>
-      <c r="I21" s="20" t="inlineStr"/>
-      <c r="J21" s="20" t="inlineStr"/>
-      <c r="K21" s="21" t="inlineStr"/>
-      <c r="L21" s="20" t="inlineStr"/>
-      <c r="M21" s="20" t="inlineStr"/>
-      <c r="N21" s="20" t="inlineStr"/>
-      <c r="O21" s="21" t="inlineStr"/>
-      <c r="P21" s="20" t="inlineStr"/>
-      <c r="Q21" s="20" t="inlineStr"/>
-      <c r="R21" s="20" t="inlineStr"/>
-      <c r="S21" s="21" t="inlineStr"/>
-      <c r="T21" s="20" t="inlineStr"/>
-      <c r="U21" s="20" t="inlineStr"/>
-      <c r="V21" s="20" t="inlineStr"/>
-      <c r="W21" s="21" t="inlineStr"/>
+      <c r="H21" s="21" t="inlineStr"/>
+      <c r="I21" s="21" t="inlineStr"/>
+      <c r="J21" s="21" t="inlineStr"/>
+      <c r="K21" s="22" t="inlineStr"/>
+      <c r="L21" s="21" t="inlineStr"/>
+      <c r="M21" s="21" t="inlineStr"/>
+      <c r="N21" s="21" t="inlineStr"/>
+      <c r="O21" s="22" t="inlineStr"/>
+      <c r="P21" s="21" t="inlineStr"/>
+      <c r="Q21" s="21" t="inlineStr"/>
+      <c r="R21" s="21" t="inlineStr"/>
+      <c r="S21" s="22" t="inlineStr"/>
+      <c r="T21" s="21" t="inlineStr"/>
+      <c r="U21" s="21" t="inlineStr"/>
+      <c r="V21" s="21" t="inlineStr"/>
+      <c r="W21" s="22" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="19" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="19" t="n"/>
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="19" t="n"/>
+      <c r="H22" s="19" t="n"/>
+      <c r="I22" s="19" t="n"/>
+      <c r="J22" s="19" t="n"/>
+      <c r="K22" s="19" t="n"/>
+      <c r="L22" s="19" t="n"/>
+      <c r="M22" s="19" t="n"/>
+      <c r="N22" s="19" t="n"/>
+      <c r="O22" s="19" t="n"/>
+      <c r="P22" s="19" t="n"/>
+      <c r="Q22" s="19" t="n"/>
+      <c r="R22" s="19" t="n"/>
+      <c r="S22" s="19" t="n"/>
+      <c r="T22" s="19" t="n"/>
+      <c r="U22" s="19" t="n"/>
+      <c r="V22" s="19" t="n"/>
+      <c r="W22" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7224,7 +7457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8311,6 +8544,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -8331,7 +8588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9402,6 +9659,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -9422,7 +9703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10525,6 +10806,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -10545,7 +10850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11706,6 +12011,30 @@
       <c r="V14" s="17" t="inlineStr"/>
       <c r="W14" s="18" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="19" t="n"/>
+      <c r="H15" s="19" t="n"/>
+      <c r="I15" s="19" t="n"/>
+      <c r="J15" s="19" t="n"/>
+      <c r="K15" s="19" t="n"/>
+      <c r="L15" s="19" t="n"/>
+      <c r="M15" s="19" t="n"/>
+      <c r="N15" s="19" t="n"/>
+      <c r="O15" s="19" t="n"/>
+      <c r="P15" s="19" t="n"/>
+      <c r="Q15" s="19" t="n"/>
+      <c r="R15" s="19" t="n"/>
+      <c r="S15" s="19" t="n"/>
+      <c r="T15" s="19" t="n"/>
+      <c r="U15" s="19" t="n"/>
+      <c r="V15" s="19" t="n"/>
+      <c r="W15" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D4:W4"/>
@@ -11727,7 +12056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12982,64 +13311,88 @@
     </row>
     <row r="17" ht="14.3" customHeight="1">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="19" t="n"/>
-      <c r="C17" s="19" t="inlineStr">
+      <c r="B17" s="20" t="n"/>
+      <c r="C17" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E17" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" s="21" t="inlineStr">
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="inlineStr">
         <is>
           <t>2d</t>
         </is>
       </c>
-      <c r="H17" s="20" t="inlineStr">
+      <c r="H17" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="I17" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K17" s="21" t="inlineStr">
+      <c r="I17" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" s="22" t="inlineStr">
         <is>
           <t>2g</t>
         </is>
       </c>
-      <c r="L17" s="20" t="inlineStr"/>
-      <c r="M17" s="20" t="inlineStr"/>
-      <c r="N17" s="20" t="inlineStr"/>
-      <c r="O17" s="21" t="inlineStr"/>
-      <c r="P17" s="20" t="inlineStr"/>
-      <c r="Q17" s="20" t="inlineStr"/>
-      <c r="R17" s="20" t="inlineStr"/>
-      <c r="S17" s="21" t="inlineStr"/>
-      <c r="T17" s="20" t="inlineStr"/>
-      <c r="U17" s="20" t="inlineStr"/>
-      <c r="V17" s="20" t="inlineStr"/>
-      <c r="W17" s="21" t="inlineStr"/>
+      <c r="L17" s="21" t="inlineStr"/>
+      <c r="M17" s="21" t="inlineStr"/>
+      <c r="N17" s="21" t="inlineStr"/>
+      <c r="O17" s="22" t="inlineStr"/>
+      <c r="P17" s="21" t="inlineStr"/>
+      <c r="Q17" s="21" t="inlineStr"/>
+      <c r="R17" s="21" t="inlineStr"/>
+      <c r="S17" s="22" t="inlineStr"/>
+      <c r="T17" s="21" t="inlineStr"/>
+      <c r="U17" s="21" t="inlineStr"/>
+      <c r="V17" s="21" t="inlineStr"/>
+      <c r="W17" s="22" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="19" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="19" t="n"/>
+      <c r="J18" s="19" t="n"/>
+      <c r="K18" s="19" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="19" t="n"/>
+      <c r="P18" s="19" t="n"/>
+      <c r="Q18" s="19" t="n"/>
+      <c r="R18" s="19" t="n"/>
+      <c r="S18" s="19" t="n"/>
+      <c r="T18" s="19" t="n"/>
+      <c r="U18" s="19" t="n"/>
+      <c r="V18" s="19" t="n"/>
+      <c r="W18" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13064,7 +13417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14151,6 +14504,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -14171,7 +14548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15242,6 +15619,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -15262,7 +15663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16317,6 +16718,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -16337,7 +16762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17408,6 +17833,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -17428,7 +17877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18451,6 +18900,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -18471,7 +18944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19587,6 +20060,30 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" s="19" t="n"/>
+      <c r="C14" s="19" t="n"/>
+      <c r="D14" s="19" t="n"/>
+      <c r="E14" s="19" t="n"/>
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="19" t="n"/>
+      <c r="H14" s="19" t="n"/>
+      <c r="I14" s="19" t="n"/>
+      <c r="J14" s="19" t="n"/>
+      <c r="K14" s="19" t="n"/>
+      <c r="L14" s="19" t="n"/>
+      <c r="M14" s="19" t="n"/>
+      <c r="N14" s="19" t="n"/>
+      <c r="O14" s="19" t="n"/>
+      <c r="P14" s="19" t="n"/>
+      <c r="Q14" s="19" t="n"/>
+      <c r="R14" s="19" t="n"/>
+      <c r="S14" s="19" t="n"/>
+      <c r="T14" s="19" t="n"/>
+      <c r="U14" s="19" t="n"/>
+      <c r="V14" s="19" t="n"/>
+      <c r="W14" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D4:W4"/>
@@ -19608,7 +20105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20663,6 +21160,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -20683,7 +21204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21738,6 +22259,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -21758,7 +22303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22939,48 +23484,72 @@
     </row>
     <row r="15" ht="14.3" customHeight="1">
       <c r="A15" s="2" t="n"/>
-      <c r="B15" s="19" t="n"/>
-      <c r="C15" s="19" t="inlineStr">
+      <c r="B15" s="20" t="n"/>
+      <c r="C15" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D15" s="20" t="inlineStr"/>
-      <c r="E15" s="20" t="inlineStr"/>
-      <c r="F15" s="20" t="inlineStr"/>
-      <c r="G15" s="21" t="inlineStr"/>
-      <c r="H15" s="20" t="inlineStr"/>
-      <c r="I15" s="20" t="inlineStr"/>
-      <c r="J15" s="20" t="inlineStr"/>
-      <c r="K15" s="21" t="inlineStr"/>
-      <c r="L15" s="20" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr"/>
+      <c r="E15" s="21" t="inlineStr"/>
+      <c r="F15" s="21" t="inlineStr"/>
+      <c r="G15" s="22" t="inlineStr"/>
+      <c r="H15" s="21" t="inlineStr"/>
+      <c r="I15" s="21" t="inlineStr"/>
+      <c r="J15" s="21" t="inlineStr"/>
+      <c r="K15" s="22" t="inlineStr"/>
+      <c r="L15" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="M15" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O15" s="21" t="inlineStr">
+      <c r="M15" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O15" s="22" t="inlineStr">
         <is>
           <t>4c</t>
         </is>
       </c>
-      <c r="P15" s="20" t="inlineStr"/>
-      <c r="Q15" s="20" t="inlineStr"/>
-      <c r="R15" s="20" t="inlineStr"/>
-      <c r="S15" s="21" t="inlineStr"/>
-      <c r="T15" s="20" t="inlineStr"/>
-      <c r="U15" s="20" t="inlineStr"/>
-      <c r="V15" s="20" t="inlineStr"/>
-      <c r="W15" s="21" t="inlineStr"/>
+      <c r="P15" s="21" t="inlineStr"/>
+      <c r="Q15" s="21" t="inlineStr"/>
+      <c r="R15" s="21" t="inlineStr"/>
+      <c r="S15" s="22" t="inlineStr"/>
+      <c r="T15" s="21" t="inlineStr"/>
+      <c r="U15" s="21" t="inlineStr"/>
+      <c r="V15" s="21" t="inlineStr"/>
+      <c r="W15" s="22" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n"/>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="19" t="n"/>
+      <c r="I16" s="19" t="n"/>
+      <c r="J16" s="19" t="n"/>
+      <c r="K16" s="19" t="n"/>
+      <c r="L16" s="19" t="n"/>
+      <c r="M16" s="19" t="n"/>
+      <c r="N16" s="19" t="n"/>
+      <c r="O16" s="19" t="n"/>
+      <c r="P16" s="19" t="n"/>
+      <c r="Q16" s="19" t="n"/>
+      <c r="R16" s="19" t="n"/>
+      <c r="S16" s="19" t="n"/>
+      <c r="T16" s="19" t="n"/>
+      <c r="U16" s="19" t="n"/>
+      <c r="V16" s="19" t="n"/>
+      <c r="W16" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -23004,7 +23573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24107,6 +24676,30 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -24127,7 +24720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25150,6 +25743,30 @@
       <c r="V12" s="17" t="inlineStr"/>
       <c r="W12" s="18" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
+      <c r="R13" s="19" t="n"/>
+      <c r="S13" s="19" t="n"/>
+      <c r="T13" s="19" t="n"/>
+      <c r="U13" s="19" t="n"/>
+      <c r="V13" s="19" t="n"/>
+      <c r="W13" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D4:W4"/>
@@ -25170,7 +25787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26729,6 +27346,30 @@
       <c r="V20" s="17" t="inlineStr"/>
       <c r="W20" s="18" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+      <c r="K21" s="19" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="19" t="n"/>
+      <c r="P21" s="19" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="19" t="n"/>
+      <c r="S21" s="19" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="19" t="n"/>
+      <c r="V21" s="19" t="n"/>
+      <c r="W21" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B9:B10"/>
@@ -26752,1077 +27393,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="11" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="12" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="14.3" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Dzień</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Poniedziałek</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Wtorek</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>Środa</t>
-        </is>
-      </c>
-      <c r="M2" s="5" t="n"/>
-      <c r="N2" s="5" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>Czwartek</t>
-        </is>
-      </c>
-      <c r="Q2" s="5" t="n"/>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="5" t="inlineStr">
-        <is>
-          <t>Piątek</t>
-        </is>
-      </c>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="5" t="n"/>
-      <c r="W2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="14.3" customHeight="1">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Atrybuty</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>przedmiot</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>grupa</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>nauczyciel</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>klasa</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>przedmiot</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>grupa</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>nauczyciel</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>klasa</t>
-        </is>
-      </c>
-      <c r="L3" s="8" t="inlineStr">
-        <is>
-          <t>przedmiot</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr">
-        <is>
-          <t>grupa</t>
-        </is>
-      </c>
-      <c r="N3" s="8" t="inlineStr">
-        <is>
-          <t>nauczyciel</t>
-        </is>
-      </c>
-      <c r="O3" s="7" t="inlineStr">
-        <is>
-          <t>klasa</t>
-        </is>
-      </c>
-      <c r="P3" s="8" t="inlineStr">
-        <is>
-          <t>przedmiot</t>
-        </is>
-      </c>
-      <c r="Q3" s="8" t="inlineStr">
-        <is>
-          <t>grupa</t>
-        </is>
-      </c>
-      <c r="R3" s="8" t="inlineStr">
-        <is>
-          <t>nauczyciel</t>
-        </is>
-      </c>
-      <c r="S3" s="7" t="inlineStr">
-        <is>
-          <t>klasa</t>
-        </is>
-      </c>
-      <c r="T3" s="8" t="inlineStr">
-        <is>
-          <t>przedmiot</t>
-        </is>
-      </c>
-      <c r="U3" s="8" t="inlineStr">
-        <is>
-          <t>grupa</t>
-        </is>
-      </c>
-      <c r="V3" s="8" t="inlineStr">
-        <is>
-          <t>nauczyciel</t>
-        </is>
-      </c>
-      <c r="W3" s="7" t="inlineStr">
-        <is>
-          <t>klasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.3" customHeight="1">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Nr</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>Godz</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="10" t="n"/>
-      <c r="G4" s="11" t="n"/>
-      <c r="H4" s="10" t="n"/>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="11" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="11" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="11" t="n"/>
-      <c r="T4" s="10" t="n"/>
-      <c r="U4" s="10" t="n"/>
-      <c r="V4" s="10" t="n"/>
-      <c r="W4" s="11" t="n"/>
-    </row>
-    <row r="5" ht="14.3" customHeight="1">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>8:00-8:45</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr"/>
-      <c r="E5" s="13" t="inlineStr"/>
-      <c r="F5" s="13" t="inlineStr"/>
-      <c r="G5" s="14" t="inlineStr"/>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K5" s="14" t="inlineStr">
-        <is>
-          <t>4a</t>
-        </is>
-      </c>
-      <c r="L5" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M5" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="N5" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O5" s="14" t="inlineStr">
-        <is>
-          <t>4b</t>
-        </is>
-      </c>
-      <c r="P5" s="13" t="inlineStr"/>
-      <c r="Q5" s="13" t="inlineStr"/>
-      <c r="R5" s="13" t="inlineStr"/>
-      <c r="S5" s="14" t="inlineStr"/>
-      <c r="T5" s="13" t="inlineStr"/>
-      <c r="U5" s="13" t="inlineStr"/>
-      <c r="V5" s="13" t="inlineStr"/>
-      <c r="W5" s="14" t="inlineStr"/>
-    </row>
-    <row r="6" ht="14.3" customHeight="1">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="12" t="n"/>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>8:00-8:45</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr"/>
-      <c r="E6" s="13" t="inlineStr"/>
-      <c r="F6" s="13" t="inlineStr"/>
-      <c r="G6" s="14" t="inlineStr"/>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K6" s="14" t="inlineStr">
-        <is>
-          <t>4b</t>
-        </is>
-      </c>
-      <c r="L6" s="13" t="inlineStr"/>
-      <c r="M6" s="13" t="inlineStr"/>
-      <c r="N6" s="13" t="inlineStr"/>
-      <c r="O6" s="14" t="inlineStr"/>
-      <c r="P6" s="13" t="inlineStr"/>
-      <c r="Q6" s="13" t="inlineStr"/>
-      <c r="R6" s="13" t="inlineStr"/>
-      <c r="S6" s="14" t="inlineStr"/>
-      <c r="T6" s="13" t="inlineStr"/>
-      <c r="U6" s="13" t="inlineStr"/>
-      <c r="V6" s="13" t="inlineStr"/>
-      <c r="W6" s="14" t="inlineStr"/>
-    </row>
-    <row r="7" ht="14.3" customHeight="1">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>8:50-9:35</t>
-        </is>
-      </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="F7" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" s="16" t="inlineStr">
-        <is>
-          <t>3c</t>
-        </is>
-      </c>
-      <c r="H7" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I7" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="J7" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K7" s="16" t="inlineStr">
-        <is>
-          <t>2d</t>
-        </is>
-      </c>
-      <c r="L7" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M7" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="N7" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O7" s="16" t="inlineStr">
-        <is>
-          <t>4c</t>
-        </is>
-      </c>
-      <c r="P7" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="Q7" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="R7" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S7" s="16" t="inlineStr">
-        <is>
-          <t>2f</t>
-        </is>
-      </c>
-      <c r="T7" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="U7" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V7" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" s="16" t="inlineStr">
-        <is>
-          <t>2c</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.3" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>9:45-10:30</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" s="14" t="inlineStr">
-        <is>
-          <t>3f</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K8" s="14" t="inlineStr">
-        <is>
-          <t>2b</t>
-        </is>
-      </c>
-      <c r="L8" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M8" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O8" s="14" t="inlineStr">
-        <is>
-          <t>3d</t>
-        </is>
-      </c>
-      <c r="P8" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="Q8" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="R8" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S8" s="14" t="inlineStr">
-        <is>
-          <t>4c</t>
-        </is>
-      </c>
-      <c r="T8" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="U8" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V8" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W8" s="14" t="inlineStr">
-        <is>
-          <t>4c</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.3" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>10:35-11:20</t>
-        </is>
-      </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="E9" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" s="16" t="inlineStr">
-        <is>
-          <t>2e</t>
-        </is>
-      </c>
-      <c r="H9" s="15" t="inlineStr"/>
-      <c r="I9" s="15" t="inlineStr"/>
-      <c r="J9" s="15" t="inlineStr"/>
-      <c r="K9" s="16" t="inlineStr"/>
-      <c r="L9" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M9" s="15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="N9" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O9" s="16" t="inlineStr">
-        <is>
-          <t>2g</t>
-        </is>
-      </c>
-      <c r="P9" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="Q9" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="R9" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S9" s="16" t="inlineStr">
-        <is>
-          <t>3a</t>
-        </is>
-      </c>
-      <c r="T9" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="U9" s="15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="V9" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W9" s="16" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.3" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>10:35-11:20</t>
-        </is>
-      </c>
-      <c r="D10" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="E10" s="15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" s="16" t="inlineStr">
-        <is>
-          <t>2f</t>
-        </is>
-      </c>
-      <c r="H10" s="15" t="inlineStr"/>
-      <c r="I10" s="15" t="inlineStr"/>
-      <c r="J10" s="15" t="inlineStr"/>
-      <c r="K10" s="16" t="inlineStr"/>
-      <c r="L10" s="15" t="inlineStr"/>
-      <c r="M10" s="15" t="inlineStr"/>
-      <c r="N10" s="15" t="inlineStr"/>
-      <c r="O10" s="16" t="inlineStr"/>
-      <c r="P10" s="15" t="inlineStr"/>
-      <c r="Q10" s="15" t="inlineStr"/>
-      <c r="R10" s="15" t="inlineStr"/>
-      <c r="S10" s="16" t="inlineStr"/>
-      <c r="T10" s="15" t="inlineStr"/>
-      <c r="U10" s="15" t="inlineStr"/>
-      <c r="V10" s="15" t="inlineStr"/>
-      <c r="W10" s="16" t="inlineStr"/>
-    </row>
-    <row r="11" ht="14.3" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>11:30-12:15</t>
-        </is>
-      </c>
-      <c r="D11" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="E11" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="F11" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>3b</t>
-        </is>
-      </c>
-      <c r="H11" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I11" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="J11" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" s="14" t="inlineStr">
-        <is>
-          <t>3d</t>
-        </is>
-      </c>
-      <c r="L11" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M11" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="N11" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O11" s="14" t="inlineStr">
-        <is>
-          <t>2d</t>
-        </is>
-      </c>
-      <c r="P11" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="Q11" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="R11" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S11" s="14" t="inlineStr">
-        <is>
-          <t>2b</t>
-        </is>
-      </c>
-      <c r="T11" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="U11" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V11" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" s="14" t="inlineStr">
-        <is>
-          <t>3a</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.3" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>12:20-13:05</t>
-        </is>
-      </c>
-      <c r="D12" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="E12" s="15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F12" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" s="16" t="inlineStr">
-        <is>
-          <t>2g</t>
-        </is>
-      </c>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="J12" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K12" s="16" t="inlineStr">
-        <is>
-          <t>3f</t>
-        </is>
-      </c>
-      <c r="L12" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M12" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="N12" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O12" s="16" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-      <c r="P12" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="Q12" s="15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="R12" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S12" s="16" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-      <c r="T12" s="15" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="U12" s="15" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="V12" s="15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W12" s="16" t="inlineStr">
-        <is>
-          <t>2a</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.3" customHeight="1">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12" t="inlineStr">
-        <is>
-          <t>13:15-14:00</t>
-        </is>
-      </c>
-      <c r="D13" s="13" t="inlineStr"/>
-      <c r="E13" s="13" t="inlineStr"/>
-      <c r="F13" s="13" t="inlineStr"/>
-      <c r="G13" s="14" t="inlineStr"/>
-      <c r="H13" s="13" t="inlineStr"/>
-      <c r="I13" s="13" t="inlineStr"/>
-      <c r="J13" s="13" t="inlineStr"/>
-      <c r="K13" s="14" t="inlineStr"/>
-      <c r="L13" s="13" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="M13" s="13" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="N13" s="13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O13" s="14" t="inlineStr">
-        <is>
-          <t>3f</t>
-        </is>
-      </c>
-      <c r="P13" s="13" t="inlineStr"/>
-      <c r="Q13" s="13" t="inlineStr"/>
-      <c r="R13" s="13" t="inlineStr"/>
-      <c r="S13" s="14" t="inlineStr"/>
-      <c r="T13" s="13" t="inlineStr"/>
-      <c r="U13" s="13" t="inlineStr"/>
-      <c r="V13" s="13" t="inlineStr"/>
-      <c r="W13" s="14" t="inlineStr"/>
-    </row>
-    <row r="14" ht="14.3" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>14:05-14:50</t>
-        </is>
-      </c>
-      <c r="D14" s="17" t="inlineStr"/>
-      <c r="E14" s="17" t="inlineStr"/>
-      <c r="F14" s="17" t="inlineStr"/>
-      <c r="G14" s="18" t="inlineStr"/>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="I14" s="17" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="J14" s="17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K14" s="18" t="inlineStr">
-        <is>
-          <t>2e</t>
-        </is>
-      </c>
-      <c r="L14" s="17" t="inlineStr"/>
-      <c r="M14" s="17" t="inlineStr"/>
-      <c r="N14" s="17" t="inlineStr"/>
-      <c r="O14" s="18" t="inlineStr"/>
-      <c r="P14" s="17" t="inlineStr">
-        <is>
-          <t>wf</t>
-        </is>
-      </c>
-      <c r="Q14" s="17" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="R14" s="17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S14" s="18" t="inlineStr">
-        <is>
-          <t>4b</t>
-        </is>
-      </c>
-      <c r="T14" s="17" t="inlineStr"/>
-      <c r="U14" s="17" t="inlineStr"/>
-      <c r="V14" s="17" t="inlineStr"/>
-      <c r="W14" s="18" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D4:W4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28096,6 +27666,1101 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" s="14" t="inlineStr">
+        <is>
+          <t>4a</t>
+        </is>
+      </c>
+      <c r="L5" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M5" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N5" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O5" s="14" t="inlineStr">
+        <is>
+          <t>4b</t>
+        </is>
+      </c>
+      <c r="P5" s="13" t="inlineStr"/>
+      <c r="Q5" s="13" t="inlineStr"/>
+      <c r="R5" s="13" t="inlineStr"/>
+      <c r="S5" s="14" t="inlineStr"/>
+      <c r="T5" s="13" t="inlineStr"/>
+      <c r="U5" s="13" t="inlineStr"/>
+      <c r="V5" s="13" t="inlineStr"/>
+      <c r="W5" s="14" t="inlineStr"/>
+    </row>
+    <row r="6" ht="14.3" customHeight="1">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>8:00-8:45</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr"/>
+      <c r="E6" s="13" t="inlineStr"/>
+      <c r="F6" s="13" t="inlineStr"/>
+      <c r="G6" s="14" t="inlineStr"/>
+      <c r="H6" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" s="14" t="inlineStr">
+        <is>
+          <t>4b</t>
+        </is>
+      </c>
+      <c r="L6" s="13" t="inlineStr"/>
+      <c r="M6" s="13" t="inlineStr"/>
+      <c r="N6" s="13" t="inlineStr"/>
+      <c r="O6" s="14" t="inlineStr"/>
+      <c r="P6" s="13" t="inlineStr"/>
+      <c r="Q6" s="13" t="inlineStr"/>
+      <c r="R6" s="13" t="inlineStr"/>
+      <c r="S6" s="14" t="inlineStr"/>
+      <c r="T6" s="13" t="inlineStr"/>
+      <c r="U6" s="13" t="inlineStr"/>
+      <c r="V6" s="13" t="inlineStr"/>
+      <c r="W6" s="14" t="inlineStr"/>
+    </row>
+    <row r="7" ht="14.3" customHeight="1">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>8:50-9:35</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="16" t="inlineStr">
+        <is>
+          <t>3c</t>
+        </is>
+      </c>
+      <c r="H7" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="J7" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" s="16" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="L7" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M7" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N7" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O7" s="16" t="inlineStr">
+        <is>
+          <t>4c</t>
+        </is>
+      </c>
+      <c r="P7" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="Q7" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R7" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S7" s="16" t="inlineStr">
+        <is>
+          <t>2f</t>
+        </is>
+      </c>
+      <c r="T7" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="U7" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V7" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" s="16" t="inlineStr">
+        <is>
+          <t>2c</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="14.3" customHeight="1">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>9:45-10:30</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="14" t="inlineStr">
+        <is>
+          <t>3f</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I8" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="J8" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" s="14" t="inlineStr">
+        <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="L8" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M8" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N8" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" s="14" t="inlineStr">
+        <is>
+          <t>3d</t>
+        </is>
+      </c>
+      <c r="P8" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="Q8" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R8" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S8" s="14" t="inlineStr">
+        <is>
+          <t>4c</t>
+        </is>
+      </c>
+      <c r="T8" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="U8" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V8" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W8" s="14" t="inlineStr">
+        <is>
+          <t>4c</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="14.3" customHeight="1">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>10:35-11:20</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" s="16" t="inlineStr">
+        <is>
+          <t>2e</t>
+        </is>
+      </c>
+      <c r="H9" s="15" t="inlineStr"/>
+      <c r="I9" s="15" t="inlineStr"/>
+      <c r="J9" s="15" t="inlineStr"/>
+      <c r="K9" s="16" t="inlineStr"/>
+      <c r="L9" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M9" s="15" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="N9" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O9" s="16" t="inlineStr">
+        <is>
+          <t>2g</t>
+        </is>
+      </c>
+      <c r="P9" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="Q9" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R9" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S9" s="16" t="inlineStr">
+        <is>
+          <t>3a</t>
+        </is>
+      </c>
+      <c r="T9" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="U9" s="15" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="V9" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W9" s="16" t="inlineStr">
+        <is>
+          <t>1a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="14.3" customHeight="1">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>10:35-11:20</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" s="16" t="inlineStr">
+        <is>
+          <t>2f</t>
+        </is>
+      </c>
+      <c r="H10" s="15" t="inlineStr"/>
+      <c r="I10" s="15" t="inlineStr"/>
+      <c r="J10" s="15" t="inlineStr"/>
+      <c r="K10" s="16" t="inlineStr"/>
+      <c r="L10" s="15" t="inlineStr"/>
+      <c r="M10" s="15" t="inlineStr"/>
+      <c r="N10" s="15" t="inlineStr"/>
+      <c r="O10" s="16" t="inlineStr"/>
+      <c r="P10" s="15" t="inlineStr"/>
+      <c r="Q10" s="15" t="inlineStr"/>
+      <c r="R10" s="15" t="inlineStr"/>
+      <c r="S10" s="16" t="inlineStr"/>
+      <c r="T10" s="15" t="inlineStr"/>
+      <c r="U10" s="15" t="inlineStr"/>
+      <c r="V10" s="15" t="inlineStr"/>
+      <c r="W10" s="16" t="inlineStr"/>
+    </row>
+    <row r="11" ht="14.3" customHeight="1">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="14" t="inlineStr">
+        <is>
+          <t>3b</t>
+        </is>
+      </c>
+      <c r="H11" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" s="14" t="inlineStr">
+        <is>
+          <t>3d</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M11" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N11" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" s="14" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="P11" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="Q11" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R11" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S11" s="14" t="inlineStr">
+        <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="T11" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="U11" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V11" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W11" s="14" t="inlineStr">
+        <is>
+          <t>3a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="14.3" customHeight="1">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="16" t="inlineStr">
+        <is>
+          <t>2g</t>
+        </is>
+      </c>
+      <c r="H12" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" s="16" t="inlineStr">
+        <is>
+          <t>3f</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M12" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O12" s="16" t="inlineStr">
+        <is>
+          <t>1a</t>
+        </is>
+      </c>
+      <c r="P12" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="Q12" s="15" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="R12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S12" s="16" t="inlineStr">
+        <is>
+          <t>1a</t>
+        </is>
+      </c>
+      <c r="T12" s="15" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="U12" s="15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="V12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W12" s="16" t="inlineStr">
+        <is>
+          <t>2a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="14.3" customHeight="1">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>13:15-14:00</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="inlineStr"/>
+      <c r="E13" s="13" t="inlineStr"/>
+      <c r="F13" s="13" t="inlineStr"/>
+      <c r="G13" s="14" t="inlineStr"/>
+      <c r="H13" s="13" t="inlineStr"/>
+      <c r="I13" s="13" t="inlineStr"/>
+      <c r="J13" s="13" t="inlineStr"/>
+      <c r="K13" s="14" t="inlineStr"/>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="M13" s="13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="N13" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O13" s="14" t="inlineStr">
+        <is>
+          <t>3f</t>
+        </is>
+      </c>
+      <c r="P13" s="13" t="inlineStr"/>
+      <c r="Q13" s="13" t="inlineStr"/>
+      <c r="R13" s="13" t="inlineStr"/>
+      <c r="S13" s="14" t="inlineStr"/>
+      <c r="T13" s="13" t="inlineStr"/>
+      <c r="U13" s="13" t="inlineStr"/>
+      <c r="V13" s="13" t="inlineStr"/>
+      <c r="W13" s="14" t="inlineStr"/>
+    </row>
+    <row r="14" ht="14.3" customHeight="1">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>14:05-14:50</t>
+        </is>
+      </c>
+      <c r="D14" s="17" t="inlineStr"/>
+      <c r="E14" s="17" t="inlineStr"/>
+      <c r="F14" s="17" t="inlineStr"/>
+      <c r="G14" s="18" t="inlineStr"/>
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I14" s="17" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="J14" s="17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" s="18" t="inlineStr">
+        <is>
+          <t>2e</t>
+        </is>
+      </c>
+      <c r="L14" s="17" t="inlineStr"/>
+      <c r="M14" s="17" t="inlineStr"/>
+      <c r="N14" s="17" t="inlineStr"/>
+      <c r="O14" s="18" t="inlineStr"/>
+      <c r="P14" s="17" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="Q14" s="17" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="R14" s="17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S14" s="18" t="inlineStr">
+        <is>
+          <t>4b</t>
+        </is>
+      </c>
+      <c r="T14" s="17" t="inlineStr"/>
+      <c r="U14" s="17" t="inlineStr"/>
+      <c r="V14" s="17" t="inlineStr"/>
+      <c r="W14" s="18" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="19" t="n"/>
+      <c r="H15" s="19" t="n"/>
+      <c r="I15" s="19" t="n"/>
+      <c r="J15" s="19" t="n"/>
+      <c r="K15" s="19" t="n"/>
+      <c r="L15" s="19" t="n"/>
+      <c r="M15" s="19" t="n"/>
+      <c r="N15" s="19" t="n"/>
+      <c r="O15" s="19" t="n"/>
+      <c r="P15" s="19" t="n"/>
+      <c r="Q15" s="19" t="n"/>
+      <c r="R15" s="19" t="n"/>
+      <c r="S15" s="19" t="n"/>
+      <c r="T15" s="19" t="n"/>
+      <c r="U15" s="19" t="n"/>
+      <c r="V15" s="19" t="n"/>
+      <c r="W15" s="19" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D4:W4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="11" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="14.3" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Dzień</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="5" t="n"/>
+      <c r="W2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="14.3" customHeight="1">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Atrybuty</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>przedmiot</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>grupa</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>nauczyciel</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>klasa</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>przedmiot</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>grupa</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>nauczyciel</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>klasa</t>
+        </is>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>przedmiot</t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="inlineStr">
+        <is>
+          <t>grupa</t>
+        </is>
+      </c>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>nauczyciel</t>
+        </is>
+      </c>
+      <c r="O3" s="7" t="inlineStr">
+        <is>
+          <t>klasa</t>
+        </is>
+      </c>
+      <c r="P3" s="8" t="inlineStr">
+        <is>
+          <t>przedmiot</t>
+        </is>
+      </c>
+      <c r="Q3" s="8" t="inlineStr">
+        <is>
+          <t>grupa</t>
+        </is>
+      </c>
+      <c r="R3" s="8" t="inlineStr">
+        <is>
+          <t>nauczyciel</t>
+        </is>
+      </c>
+      <c r="S3" s="7" t="inlineStr">
+        <is>
+          <t>klasa</t>
+        </is>
+      </c>
+      <c r="T3" s="8" t="inlineStr">
+        <is>
+          <t>przedmiot</t>
+        </is>
+      </c>
+      <c r="U3" s="8" t="inlineStr">
+        <is>
+          <t>grupa</t>
+        </is>
+      </c>
+      <c r="V3" s="8" t="inlineStr">
+        <is>
+          <t>nauczyciel</t>
+        </is>
+      </c>
+      <c r="W3" s="7" t="inlineStr">
+        <is>
+          <t>klasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.3" customHeight="1">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="n"/>
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="10" t="n"/>
+      <c r="U4" s="10" t="n"/>
+      <c r="V4" s="10" t="n"/>
+      <c r="W4" s="11" t="n"/>
+    </row>
+    <row r="5" ht="14.3" customHeight="1">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>8:00-8:45</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr"/>
+      <c r="E5" s="13" t="inlineStr"/>
+      <c r="F5" s="13" t="inlineStr"/>
+      <c r="G5" s="14" t="inlineStr"/>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="I5" s="13" t="inlineStr">
+        <is>
           <t>1/2</t>
         </is>
       </c>
@@ -28921,6 +29586,30 @@
       <c r="U15" s="17" t="inlineStr"/>
       <c r="V15" s="17" t="inlineStr"/>
       <c r="W15" s="18" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n"/>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="19" t="n"/>
+      <c r="I16" s="19" t="n"/>
+      <c r="J16" s="19" t="n"/>
+      <c r="K16" s="19" t="n"/>
+      <c r="L16" s="19" t="n"/>
+      <c r="M16" s="19" t="n"/>
+      <c r="N16" s="19" t="n"/>
+      <c r="O16" s="19" t="n"/>
+      <c r="P16" s="19" t="n"/>
+      <c r="Q16" s="19" t="n"/>
+      <c r="R16" s="19" t="n"/>
+      <c r="S16" s="19" t="n"/>
+      <c r="T16" s="19" t="n"/>
+      <c r="U16" s="19" t="n"/>
+      <c r="V16" s="19" t="n"/>
+      <c r="W16" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -28945,7 +29634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29256,50 +29945,74 @@
     </row>
     <row r="7" ht="14.3" customHeight="1">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>9:45-10:30</t>
         </is>
       </c>
-      <c r="D7" s="20" t="inlineStr"/>
-      <c r="E7" s="20" t="inlineStr"/>
-      <c r="F7" s="20" t="inlineStr"/>
-      <c r="G7" s="21" t="inlineStr"/>
-      <c r="H7" s="20" t="inlineStr"/>
-      <c r="I7" s="20" t="inlineStr"/>
-      <c r="J7" s="20" t="inlineStr"/>
-      <c r="K7" s="21" t="inlineStr"/>
-      <c r="L7" s="20" t="inlineStr"/>
-      <c r="M7" s="20" t="inlineStr"/>
-      <c r="N7" s="20" t="inlineStr"/>
-      <c r="O7" s="21" t="inlineStr"/>
-      <c r="P7" s="20" t="inlineStr"/>
-      <c r="Q7" s="20" t="inlineStr"/>
-      <c r="R7" s="20" t="inlineStr"/>
-      <c r="S7" s="21" t="inlineStr"/>
-      <c r="T7" s="20" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr"/>
+      <c r="E7" s="21" t="inlineStr"/>
+      <c r="F7" s="21" t="inlineStr"/>
+      <c r="G7" s="22" t="inlineStr"/>
+      <c r="H7" s="21" t="inlineStr"/>
+      <c r="I7" s="21" t="inlineStr"/>
+      <c r="J7" s="21" t="inlineStr"/>
+      <c r="K7" s="22" t="inlineStr"/>
+      <c r="L7" s="21" t="inlineStr"/>
+      <c r="M7" s="21" t="inlineStr"/>
+      <c r="N7" s="21" t="inlineStr"/>
+      <c r="O7" s="22" t="inlineStr"/>
+      <c r="P7" s="21" t="inlineStr"/>
+      <c r="Q7" s="21" t="inlineStr"/>
+      <c r="R7" s="21" t="inlineStr"/>
+      <c r="S7" s="22" t="inlineStr"/>
+      <c r="T7" s="21" t="inlineStr">
         <is>
           <t>wf</t>
         </is>
       </c>
-      <c r="U7" s="20" t="inlineStr">
+      <c r="U7" s="21" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="V7" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" s="21" t="inlineStr">
+      <c r="V7" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W7" s="22" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="19" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="19" t="n"/>
+      <c r="F8" s="19" t="n"/>
+      <c r="G8" s="19" t="n"/>
+      <c r="H8" s="19" t="n"/>
+      <c r="I8" s="19" t="n"/>
+      <c r="J8" s="19" t="n"/>
+      <c r="K8" s="19" t="n"/>
+      <c r="L8" s="19" t="n"/>
+      <c r="M8" s="19" t="n"/>
+      <c r="N8" s="19" t="n"/>
+      <c r="O8" s="19" t="n"/>
+      <c r="P8" s="19" t="n"/>
+      <c r="Q8" s="19" t="n"/>
+      <c r="R8" s="19" t="n"/>
+      <c r="S8" s="19" t="n"/>
+      <c r="T8" s="19" t="n"/>
+      <c r="U8" s="19" t="n"/>
+      <c r="V8" s="19" t="n"/>
+      <c r="W8" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
